--- a/input/SequentialExtractions.xlsx
+++ b/input/SequentialExtractions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuppevelt\Nextcloud\Documents\DATA\Code\PhD_thesis\Aarhus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Nextcloud\Documents\ProjectsRepositories\AarhusExperiment\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA7C22-EBA6-4E1F-9D6C-620BF633EB59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3351BD1F-C9F9-451D-A030-92EBBA12BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="750" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sediment" sheetId="1" r:id="rId1"/>
+    <sheet name="ferrosorb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="19">
   <si>
     <t>Sample</t>
   </si>
@@ -68,6 +69,21 @@
   <si>
     <t>ts0</t>
   </si>
+  <si>
+    <t>Ferrosorb</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +100,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,16 +152,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Prozent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Prozent 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Prozent 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Prozent 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Standard 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Standard 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Standard 2 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Standard 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Standard 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Standard 3 3" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Standard 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Standard 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Standard 4 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Standard 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard 5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Standard 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Standard 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Standard 7 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +564,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -435,8 +587,11 @@
       <c r="F2">
         <v>0.43219999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -455,8 +610,11 @@
       <c r="F3">
         <v>0.58650000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -475,8 +633,11 @@
       <c r="F4">
         <v>0.53480000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -495,8 +656,11 @@
       <c r="F5">
         <v>0.4783</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -515,8 +679,11 @@
       <c r="F6">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -535,8 +702,11 @@
       <c r="F7">
         <v>0.62560000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -555,8 +725,11 @@
       <c r="F8">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -575,8 +748,11 @@
       <c r="F9">
         <v>0.52929999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -595,8 +771,11 @@
       <c r="F10">
         <v>0.51039999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -615,8 +794,11 @@
       <c r="F11">
         <v>0.58209999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -635,8 +817,11 @@
       <c r="F12">
         <v>0.57420000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -655,8 +840,11 @@
       <c r="F13">
         <v>0.53310000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -675,8 +863,11 @@
       <c r="F14">
         <v>0.43219999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -695,8 +886,11 @@
       <c r="F15">
         <v>0.58650000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -715,8 +909,11 @@
       <c r="F16">
         <v>0.53480000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -735,8 +932,11 @@
       <c r="F17">
         <v>0.4783</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -755,8 +955,11 @@
       <c r="F18">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -775,8 +978,11 @@
       <c r="F19">
         <v>0.62560000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -795,8 +1001,11 @@
       <c r="F20">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -815,8 +1024,11 @@
       <c r="F21">
         <v>0.52929999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -835,8 +1047,11 @@
       <c r="F22">
         <v>0.51039999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -855,8 +1070,11 @@
       <c r="F23">
         <v>0.58209999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -875,8 +1093,11 @@
       <c r="F24">
         <v>0.57420000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -895,8 +1116,11 @@
       <c r="F25">
         <v>0.53310000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -915,8 +1139,11 @@
       <c r="F26">
         <v>0.43219999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -935,8 +1162,11 @@
       <c r="F27">
         <v>0.58650000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -955,8 +1185,11 @@
       <c r="F28">
         <v>0.53480000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -975,8 +1208,11 @@
       <c r="F29">
         <v>0.4783</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -995,8 +1231,11 @@
       <c r="F30">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1015,8 +1254,11 @@
       <c r="F31">
         <v>0.62560000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1277,11 @@
       <c r="F32">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1300,11 @@
       <c r="F33">
         <v>0.52929999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1323,11 @@
       <c r="F34">
         <v>0.51039999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1095,8 +1346,11 @@
       <c r="F35">
         <v>0.58209999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1369,11 @@
       <c r="F36">
         <v>0.57420000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1135,8 +1392,11 @@
       <c r="F37">
         <v>0.53310000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1155,8 +1415,11 @@
       <c r="F38">
         <v>0.48948000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1175,8 +1438,11 @@
       <c r="F39">
         <v>0.41206999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1195,8 +1461,11 @@
       <c r="F40">
         <v>0.42157</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1215,8 +1484,11 @@
       <c r="F41">
         <v>0.49374000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1235,8 +1507,11 @@
       <c r="F42">
         <v>0.45856999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1255,8 +1530,11 @@
       <c r="F43">
         <v>0.42909999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1275,8 +1553,11 @@
       <c r="F44">
         <v>0.48948000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1295,8 +1576,11 @@
       <c r="F45">
         <v>0.41206999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1315,8 +1599,11 @@
       <c r="F46">
         <v>0.42157</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1335,8 +1622,11 @@
       <c r="F47">
         <v>0.48948000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1355,8 +1645,11 @@
       <c r="F48">
         <v>0.41206999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1374,10 +1667,399 @@
       </c>
       <c r="F49">
         <v>0.42157</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C486AF6-EE6F-44DC-BD84-385141D47108}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>196.27348133691146</v>
+      </c>
+      <c r="E2">
+        <v>0.74550703423599507</v>
+      </c>
+      <c r="F2">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>233.33130031715061</v>
+      </c>
+      <c r="E3">
+        <v>0.74550703423599507</v>
+      </c>
+      <c r="F3">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>605.67414816621942</v>
+      </c>
+      <c r="E4">
+        <v>0.74550703423599507</v>
+      </c>
+      <c r="F4">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>254.50719687728713</v>
+      </c>
+      <c r="E5">
+        <v>5.6865495649345394</v>
+      </c>
+      <c r="F5">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>243.33373993657</v>
+      </c>
+      <c r="E6">
+        <v>5.6865495649345394</v>
+      </c>
+      <c r="F6">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>732.72952752703918</v>
+      </c>
+      <c r="E7">
+        <v>5.6865495649345394</v>
+      </c>
+      <c r="F7">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.8043018622428262</v>
+      </c>
+      <c r="E8">
+        <v>1.4513702529072157</v>
+      </c>
+      <c r="F8">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1.8043018622428262</v>
+      </c>
+      <c r="E9">
+        <v>1.4513702529072157</v>
+      </c>
+      <c r="F9">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>63.56733349597463</v>
+      </c>
+      <c r="E10">
+        <v>1.4513702529072157</v>
+      </c>
+      <c r="F10">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F14">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F15">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F16">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/SequentialExtractions.xlsx
+++ b/input/SequentialExtractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Nextcloud\Documents\ProjectsRepositories\AarhusExperiment\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3351BD1F-C9F9-451D-A030-92EBBA12BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A18C9D-68D5-450E-A373-03C887A11F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="750" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sediment" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="19">
   <si>
     <t>Sample</t>
   </si>
@@ -92,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +139,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,7 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -234,6 +253,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -591,7 +611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -614,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -637,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -660,7 +680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -683,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -706,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -729,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -752,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -775,7 +795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -798,7 +818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -821,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -844,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -855,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>9.3923314629584489</v>
+        <v>18.784662925916898</v>
       </c>
       <c r="E14" s="1">
         <v>5.6865495649345394</v>
@@ -867,7 +887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -890,7 +910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -913,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -936,7 +956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -959,7 +979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1258,7 +1278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1396,7 +1416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1488,7 +1508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +1531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1580,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1670,6 +1690,696 @@
       </c>
       <c r="G49" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.4783</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.43219999999999997</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6">
+        <v>7.33</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>8.16</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>8.34</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>7.89</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.79</v>
+      </c>
+      <c r="E62">
+        <v>0.22</v>
+      </c>
+      <c r="F62">
+        <v>0.4783</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>0.71</v>
+      </c>
+      <c r="E63">
+        <v>0.22</v>
+      </c>
+      <c r="F63">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.85</v>
+      </c>
+      <c r="E64">
+        <v>0.22</v>
+      </c>
+      <c r="F64">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0.6</v>
+      </c>
+      <c r="E65">
+        <v>0.22</v>
+      </c>
+      <c r="F65">
+        <v>0.43219999999999997</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>0.68</v>
+      </c>
+      <c r="E66">
+        <v>0.22</v>
+      </c>
+      <c r="F66">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>0.64</v>
+      </c>
+      <c r="E67">
+        <v>0.22</v>
+      </c>
+      <c r="F67">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E68">
+        <v>0.21</v>
+      </c>
+      <c r="F68">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1.25</v>
+      </c>
+      <c r="E69">
+        <v>0.21</v>
+      </c>
+      <c r="F69">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1.22</v>
+      </c>
+      <c r="E70">
+        <v>0.21</v>
+      </c>
+      <c r="F70">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1.39</v>
+      </c>
+      <c r="E71">
+        <v>0.21</v>
+      </c>
+      <c r="F71">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1.34</v>
+      </c>
+      <c r="E72">
+        <v>0.21</v>
+      </c>
+      <c r="F72">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1.31</v>
+      </c>
+      <c r="E73">
+        <v>0.21</v>
+      </c>
+      <c r="F73">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>6.44</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.48948000000000003</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>5.44</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.41206999999999999</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>5.35</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.42157</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1.36</v>
+      </c>
+      <c r="E77">
+        <v>0.21</v>
+      </c>
+      <c r="F77">
+        <v>0.48948000000000003</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1.23</v>
+      </c>
+      <c r="E78">
+        <v>0.21</v>
+      </c>
+      <c r="F78">
+        <v>0.41206999999999999</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>1.25</v>
+      </c>
+      <c r="E79">
+        <v>0.21</v>
+      </c>
+      <c r="F79">
+        <v>0.42157</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1682,13 +2392,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C486AF6-EE6F-44DC-BD84-385141D47108}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +2421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +2444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +2467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1780,7 +2490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +2513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1826,7 +2536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1849,7 +2559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +2605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1941,7 +2651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1964,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +2697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +2720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2033,7 +2743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
